--- a/public/tempEntrada.xlsx
+++ b/public/tempEntrada.xlsx
@@ -22,10 +22,10 @@
     <t>CENTRO DE CAPACITACIÓN PARA EL TRABAJO INDUSTRIAL NO. 50</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>07</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
   <si>
     <t>2022</t>
@@ -34,7 +34,7 @@
     <t>FACTURA NÚM:</t>
   </si>
   <si>
-    <t>A21216402</t>
+    <t>12012</t>
   </si>
   <si>
     <t>DIA</t>
@@ -49,7 +49,7 @@
     <t>PROCEDENCIA:</t>
   </si>
   <si>
-    <t>CD</t>
+    <t>Procedencia</t>
   </si>
   <si>
     <t>RECURSOS MATERIALES Y SERVICIOS</t>
@@ -58,7 +58,7 @@
     <t>NÚMERO</t>
   </si>
   <si>
-    <t>Office Depot</t>
+    <t>Tienda</t>
   </si>
   <si>
     <t>PARTIDA</t>
@@ -82,16 +82,16 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>21101</t>
-  </si>
-  <si>
-    <t>Pizarron blanco</t>
-  </si>
-  <si>
-    <t>Pieza</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>Cubeta</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
   <si>
     <t>ELABORÓ</t>
@@ -106,13 +106,13 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>Tila del Carmen Mendoza</t>
-  </si>
-  <si>
-    <t>Abraham Espinosa Mendoza</t>
-  </si>
-  <si>
-    <t>Antonio Espinosa Correa</t>
+    <t>Elaborador</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Almacenista</t>
   </si>
   <si>
     <t>FIRMA</t>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9" t="s">
@@ -797,13 +797,13 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="13">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I9" s="13">
         <f>F9 * H9</f>
